--- a/Output_Result.xlsx
+++ b/Output_Result.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
@@ -714,6 +714,60 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20234211/24/23 -02:42:21</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ApplicationFrameHost.exe</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.21875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2163152463620963</v>
+      </c>
+      <c r="F11" t="n">
+        <v>281</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20234211/24/23 -02:42:58</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ApplicationFrameHost.exe</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35.21875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2163152463620963</v>
+      </c>
+      <c r="F12" t="n">
+        <v>558</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output_Result.xlsx
+++ b/Output_Result.xlsx
@@ -417,10 +417,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20235811/24/23 -01:58:09</t>
+          <t>20230211/24/23 -10:02:44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>35.171875</v>
+        <v>35.29296875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2160273378709311</v>
+        <v>0.2167711014731078</v>
       </c>
       <c r="F2" t="n">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -501,7 +501,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20235811/24/23 -01:58:40</t>
+          <t>20230311/24/23 -10:03:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.171875</v>
+        <v>35.29296875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2160273378709311</v>
+        <v>0.2167711014731078</v>
       </c>
       <c r="F3" t="n">
-        <v>533</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -528,7 +528,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20230011/24/23 -02:00:51</t>
+          <t>20230311/24/23 -10:03:32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.171875</v>
+        <v>35.29296875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2160273378709311</v>
+        <v>0.2167711014731078</v>
       </c>
       <c r="F4" t="n">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -555,7 +555,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20230111/24/23 -02:01:26</t>
+          <t>20230911/24/23 -10:09:11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>35.171875</v>
+        <v>35.046875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2160273378709311</v>
+        <v>0.2152595818944907</v>
       </c>
       <c r="F5" t="n">
-        <v>530</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -582,7 +582,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20230211/24/23 -02:02:01</t>
+          <t>20230911/24/23 -10:09:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.4609375</v>
+        <v>35.046875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2116607257549261</v>
+        <v>0.2152595818944907</v>
       </c>
       <c r="F6" t="n">
-        <v>796</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -609,7 +609,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20230211/24/23 -02:02:36</t>
+          <t>20230911/24/23 -10:09:58</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>34.4609375</v>
+        <v>34.625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2116607257549261</v>
+        <v>0.2126684054740041</v>
       </c>
       <c r="F7" t="n">
-        <v>1062</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -636,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20230311/24/23 -02:03:11</t>
+          <t>20231711/24/23 -10:17:50</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.4609375</v>
+        <v>34.23828125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2116607257549261</v>
+        <v>0.2102931604218915</v>
       </c>
       <c r="F8" t="n">
-        <v>1326</v>
+        <v>37</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -663,7 +663,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20230411/24/23 -02:04:45</t>
+          <t>20231811/24/23 -10:18:14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>34.4609375</v>
+        <v>34.23828125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2116607257549261</v>
+        <v>0.2102931604218915</v>
       </c>
       <c r="F9" t="n">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -690,7 +690,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20230511/24/23 -02:05:20</t>
+          <t>20231811/24/23 -10:18:37</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -702,69 +702,15 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>34.4609375</v>
+        <v>34.23828125</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2116607257549261</v>
+        <v>0.2102931604218915</v>
       </c>
       <c r="F10" t="n">
-        <v>528</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20234211/24/23 -02:42:21</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ApplicationFrameHost.exe</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>35.21875</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2163152463620963</v>
-      </c>
-      <c r="F11" t="n">
-        <v>281</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>20234211/24/23 -02:42:58</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ApplicationFrameHost.exe</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>35.21875</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.2163152463620963</v>
-      </c>
-      <c r="F12" t="n">
-        <v>558</v>
-      </c>
-      <c r="G12" t="n">
         <v>3</v>
       </c>
     </row>
